--- a/biology/Botanique/Flore_(ouvrage)/Flore_(ouvrage).xlsx
+++ b/biology/Botanique/Flore_(ouvrage)/Flore_(ouvrage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une flore est un catalogue descriptif de la flore d'une région déterminée (par exemple, la « Flore du Nord de la France et de la Belgique » de Gaston Bonnier et Georges de Layens) ou relative à un thème particulier (par exemple, la « Flore forestière française » de Jean-Claude Rameau et al.). 
 Les flores classiques sont des livres, contenant généralement des planches botaniques et/ou des photographies de plantes. Les flores sont souvent dotées d'une clé de détermination qui permet l'identification des espèces.
@@ -513,7 +525,9 @@
           <t>Flores classiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Europe
 Flora Londinensis, William Curtis. Angleterre 1777- 1798
@@ -555,8 +569,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Amériques
-Amérique centrale et du sud
+          <t>Amériques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Amérique centrale et du sud
 Flora Brasiliensis : Flora Brasiliensis
 Flora of São Paulo in Brazil
 Flora de Chile
@@ -569,9 +588,43 @@
 Flora of the Venezuelan Guayana
 Flora Neotropica (1968-ongoing) Organising committee website.
 Amérique du nord
-Flora of North America : Flora of North America
-Asie
-Chine &amp; Japon
+Flora of North America : Flora of North America</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Flore_(ouvrage)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_(ouvrage)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Flores numériques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chine &amp; Japon
 Flora of China
 Flora of China in eFloras
 Flora of Japan
@@ -580,17 +633,85 @@
 Flora Malesiana (1984-ongoing) About Flora Malesiana.
 Inde et Sri Lanka
 Flora of Bhutan
-Flora of Nepal
-Europe
-Flora Celtica Plants and people in Celtic Europe
+Flora of Nepal</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Flore_(ouvrage)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_(ouvrage)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Flores numériques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Flora Celtica Plants and people in Celtic Europe
 Flora Europaea : Flora Europaea
 Flora of Europe
 Flora iberica
 Flora of Acores
 Flora Danica : Flora Danica
-Flora of Romania
-Afrique &amp; Madagascar
-Flora of Tropical Africa</t>
+Flora of Romania</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Flore_(ouvrage)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flore_(ouvrage)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Flores numériques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Afrique &amp; Madagascar</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Flora of Tropical Africa</t>
         </is>
       </c>
     </row>
